--- a/Module1/Lab1Start v5 RW2.xlsx
+++ b/Module1/Lab1Start v5 RW2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahath\OneDrive\Documents\RW\Excel_study\Excel_files_workspace\Excel courses\edX Introduction to Data Analysis using Excel\course_repo\Module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF64C13E-99ED-4095-8B99-65F73CB3C1E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D220CABE-1757-4DA1-8735-CBB06A8EFDD3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4464,7 +4464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
